--- a/explainable_low_disc/train/discriminated_instances.xlsx
+++ b/explainable_low_disc/train/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>217</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>356</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>527</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>549</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>597</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>786</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>816</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>858</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>877</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>998</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1038</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1113</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1251</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1297</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1304</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1438</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1592</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1690</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1875</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1901</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2034</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2059</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2068</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2199</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2268</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2342</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2364</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2414</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2432</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2470</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2510</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2525</v>
+        <v>972</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2535</v>
+        <v>979</v>
       </c>
     </row>
     <row r="45">
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2588</v>
+        <v>998</v>
       </c>
     </row>
     <row r="46">
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2652</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="47">
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2717</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="48">
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2742</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49">
@@ -820,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2790</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50">
@@ -828,7 +828,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2802</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="51">
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2804</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="52">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2887</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="53">
@@ -852,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2921</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="54">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2929</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2944</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="56">
@@ -876,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3005</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="57">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3061</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="58">
@@ -892,7 +892,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3195</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="59">
@@ -900,7 +900,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3203</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="60">
@@ -908,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3237</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="61">
@@ -916,7 +916,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3355</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="62">
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3383</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="63">
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3437</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="64">
@@ -940,7 +940,591 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
         <v>3461</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3465</v>
       </c>
     </row>
   </sheetData>
